--- a/app/Licenciatura_em_Engenharia_Electrica_Pos_Laboral.xlsx
+++ b/app/Licenciatura_em_Engenharia_Electrica_Pos_Laboral.xlsx
@@ -59,9 +59,8 @@
     <sheet name="20151700" sheetId="49" r:id="rId52"/>
     <sheet name="20151691" sheetId="50" r:id="rId53"/>
     <sheet name="20151716" sheetId="51" r:id="rId54"/>
-    <sheet name="20154430" sheetId="52" r:id="rId55"/>
-    <sheet name="Sheet2" sheetId="53" r:id="rId56"/>
-    <sheet name="Sheet3" sheetId="54" r:id="rId57"/>
+    <sheet name="Sheet2" sheetId="52" r:id="rId55"/>
+    <sheet name="Sheet3" sheetId="53" r:id="rId56"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -69,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="400">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -218,9 +217,6 @@
     <t>Balbina Francisco</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -257,9 +253,6 @@
     <t>Anita Manuel Ricardo</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110100158668B</t>
   </si>
   <si>
@@ -284,9 +277,6 @@
     <t>Marieta Alberto Chivethe</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>+258845656444</t>
   </si>
   <si>
@@ -350,9 +340,6 @@
     <t>Judite Isaias Tivane</t>
   </si>
   <si>
-    <t>Cidade de Maxixe</t>
-  </si>
-  <si>
     <t>110400223966I</t>
   </si>
   <si>
@@ -461,9 +448,6 @@
     <t>Felismina Tlhemo</t>
   </si>
   <si>
-    <t>Distrito de Bilene</t>
-  </si>
-  <si>
     <t>090100856424I</t>
   </si>
   <si>
@@ -545,9 +529,6 @@
     <t xml:space="preserve">Hortencia Francisco </t>
   </si>
   <si>
-    <t>Distrito de Manhiça</t>
-  </si>
-  <si>
     <t>110100282603P</t>
   </si>
   <si>
@@ -569,9 +550,6 @@
     <t>Felizarda Armindo Nhabau</t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>110100151066Q</t>
   </si>
   <si>
@@ -593,9 +571,6 @@
     <t>Celeste Pequenino Munharo</t>
   </si>
   <si>
-    <t>Cidade de Beira</t>
-  </si>
-  <si>
     <t>070100531665A</t>
   </si>
   <si>
@@ -641,9 +616,6 @@
     <t>Maria Rosario Matavele</t>
   </si>
   <si>
-    <t>Distrito de Chókwé</t>
-  </si>
-  <si>
     <t>Casado</t>
   </si>
   <si>
@@ -689,9 +661,6 @@
     <t xml:space="preserve">Cecilia Inacio </t>
   </si>
   <si>
-    <t>Distrito de Cahora-Bassa</t>
-  </si>
-  <si>
     <t>010101495770P</t>
   </si>
   <si>
@@ -740,9 +709,6 @@
     <t>Divina Maria</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>110100851326I</t>
   </si>
   <si>
@@ -812,9 +778,6 @@
     <t>Maria Jose Mbalate</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110100158426S</t>
   </si>
   <si>
@@ -1064,9 +1027,6 @@
     <t>Ana Maria Horacio</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>110100950533I</t>
   </si>
   <si>
@@ -1308,12 +1268,6 @@
   </si>
   <si>
     <t>+258821596954</t>
-  </si>
-  <si>
-    <t>Avelino</t>
-  </si>
-  <si>
-    <t>Dércio José da Silva</t>
   </si>
 </sst>
 </file>
@@ -2573,7 +2527,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2589,7 +2543,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2605,7 +2559,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2621,7 +2575,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2637,7 +2591,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2652,9 +2606,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2662,7 +2614,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2673,7 +2625,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2682,7 +2634,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2694,7 +2646,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2798,7 +2750,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2841,7 +2793,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3168,7 +3120,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3184,7 +3136,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3200,7 +3152,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3216,7 +3168,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3232,7 +3184,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3247,9 +3199,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3257,7 +3207,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3268,7 +3218,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3277,7 +3227,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3289,7 +3239,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3297,7 +3247,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3393,7 +3343,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3436,7 +3386,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3763,7 +3713,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3779,7 +3729,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3795,7 +3745,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3811,7 +3761,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3827,7 +3777,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3842,9 +3792,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>130</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3852,7 +3800,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3863,7 +3811,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3872,7 +3820,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3884,7 +3832,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3892,7 +3840,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3988,7 +3936,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4031,7 +3979,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4358,7 +4306,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4374,7 +4322,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4390,7 +4338,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4406,7 +4354,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4422,7 +4370,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4437,9 +4385,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4447,7 +4393,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4458,7 +4404,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4467,7 +4413,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4479,7 +4425,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4487,7 +4433,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4583,7 +4529,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4626,7 +4572,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4953,7 +4899,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4969,7 +4915,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4985,7 +4931,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5001,7 +4947,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5017,7 +4963,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5032,9 +4978,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5042,7 +4986,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5053,7 +4997,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5062,7 +5006,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5074,7 +5018,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5082,7 +5026,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5178,7 +5122,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5221,7 +5165,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5548,7 +5492,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5564,7 +5508,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5580,7 +5524,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5596,7 +5540,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5612,7 +5556,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5627,9 +5571,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5637,7 +5579,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5648,7 +5590,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5657,7 +5599,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5669,7 +5611,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5677,7 +5619,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5773,7 +5715,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5816,7 +5758,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6143,7 +6085,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6159,7 +6101,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6175,7 +6117,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6191,7 +6133,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6207,7 +6149,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6222,9 +6164,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>158</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6232,7 +6172,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6243,7 +6183,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6252,7 +6192,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6264,7 +6204,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6272,7 +6212,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6368,7 +6308,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6411,7 +6351,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6738,7 +6678,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6754,7 +6694,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6770,7 +6710,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6786,7 +6726,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6802,7 +6742,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6817,9 +6757,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>166</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6827,7 +6765,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6838,7 +6776,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6847,7 +6785,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6859,7 +6797,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6867,7 +6805,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6963,7 +6901,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7006,7 +6944,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7333,7 +7271,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7349,7 +7287,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7365,7 +7303,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7381,7 +7319,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7397,7 +7335,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7412,9 +7350,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>174</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7422,7 +7358,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7433,7 +7369,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7442,7 +7378,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7454,7 +7390,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7462,7 +7398,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7558,7 +7494,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7601,7 +7537,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7928,7 +7864,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7944,7 +7880,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7960,7 +7896,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7976,7 +7912,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7992,7 +7928,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8007,9 +7943,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8017,7 +7951,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8028,7 +7962,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8037,7 +7971,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8049,7 +7983,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8057,7 +7991,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8153,7 +8087,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8196,7 +8130,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8602,9 +8536,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8612,7 +8544,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8623,7 +8555,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8632,7 +8564,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8644,7 +8576,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8652,7 +8584,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8748,7 +8680,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8791,7 +8723,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9118,7 +9050,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9134,7 +9066,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9150,7 +9082,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9166,7 +9098,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9182,7 +9114,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9197,9 +9129,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>190</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9207,7 +9137,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9218,7 +9148,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9227,7 +9157,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9239,7 +9169,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9247,7 +9177,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9343,7 +9273,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9386,7 +9316,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9713,7 +9643,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9729,7 +9659,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9745,7 +9675,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9761,7 +9691,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9777,7 +9707,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9792,9 +9722,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9802,7 +9730,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9813,7 +9741,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9822,7 +9750,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9834,7 +9762,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9842,7 +9770,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9938,7 +9866,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9981,7 +9909,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10308,7 +10236,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10324,7 +10252,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10340,7 +10268,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10356,7 +10284,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10372,7 +10300,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10387,9 +10315,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>206</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10397,7 +10323,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10408,7 +10334,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10417,7 +10343,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10429,7 +10355,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10437,7 +10363,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10533,7 +10459,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10576,7 +10502,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10903,7 +10829,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10919,7 +10845,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10935,7 +10861,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10951,7 +10877,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10967,7 +10893,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10982,9 +10908,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10992,7 +10916,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11003,7 +10927,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11012,7 +10936,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11024,7 +10948,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11032,7 +10956,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11128,7 +11052,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11171,7 +11095,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11498,7 +11422,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11514,7 +11438,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11530,7 +11454,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11546,7 +11470,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11562,7 +11486,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11577,9 +11501,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>223</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11587,7 +11509,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11598,7 +11520,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11607,7 +11529,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11619,7 +11541,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11627,7 +11549,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11723,7 +11645,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11766,7 +11688,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12093,7 +12015,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12109,7 +12031,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12125,7 +12047,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12141,7 +12063,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12157,7 +12079,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12172,9 +12094,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12182,7 +12102,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12193,7 +12113,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12202,7 +12122,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12214,7 +12134,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12222,7 +12142,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12318,7 +12238,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12361,7 +12281,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12688,7 +12608,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12704,7 +12624,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12720,7 +12640,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12736,7 +12656,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12752,7 +12672,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12767,9 +12687,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12777,7 +12695,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12788,7 +12706,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12797,7 +12715,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12809,7 +12727,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12817,7 +12735,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12913,7 +12831,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12956,7 +12874,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13283,7 +13201,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13299,7 +13217,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13315,7 +13233,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13331,7 +13249,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13347,7 +13265,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13362,9 +13280,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>247</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13372,7 +13288,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13383,7 +13299,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13392,7 +13308,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13404,7 +13320,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13412,7 +13328,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13508,7 +13424,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13551,7 +13467,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13878,7 +13794,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13894,7 +13810,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14085,7 +14001,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14451,7 +14367,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14467,7 +14383,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14483,7 +14399,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14499,7 +14415,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14515,7 +14431,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14530,9 +14446,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14540,7 +14454,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14551,7 +14465,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14560,7 +14474,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14572,7 +14486,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14580,7 +14494,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14676,7 +14590,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14719,7 +14633,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15046,7 +14960,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15062,7 +14976,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15078,7 +14992,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15094,7 +15008,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15110,7 +15024,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15125,9 +15039,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15135,7 +15047,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15146,7 +15058,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15155,7 +15067,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15167,7 +15079,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15175,7 +15087,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15271,7 +15183,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15314,7 +15226,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15641,7 +15553,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15657,7 +15569,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15673,7 +15585,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15689,7 +15601,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15705,7 +15617,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15720,9 +15632,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15730,7 +15640,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15741,7 +15651,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15750,7 +15660,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15762,7 +15672,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15770,7 +15680,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15866,7 +15776,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15909,7 +15819,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16236,7 +16146,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16252,7 +16162,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16268,7 +16178,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16284,7 +16194,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16300,7 +16210,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16315,9 +16225,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16325,7 +16233,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16336,7 +16244,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16345,7 +16253,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16357,7 +16265,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16365,7 +16273,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16461,7 +16369,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16504,7 +16412,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16831,7 +16739,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16847,7 +16755,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16863,7 +16771,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16879,7 +16787,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16895,7 +16803,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16910,9 +16818,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16920,7 +16826,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16931,7 +16837,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16940,7 +16846,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16952,7 +16858,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16960,7 +16866,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17056,7 +16962,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17099,7 +17005,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17426,7 +17332,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17442,7 +17348,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17458,7 +17364,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17474,7 +17380,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17490,7 +17396,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17505,9 +17411,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17515,7 +17419,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17526,7 +17430,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17535,7 +17439,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17547,7 +17451,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17555,7 +17459,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17651,7 +17555,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17694,7 +17598,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18021,7 +17925,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18037,7 +17941,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18053,7 +17957,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18069,7 +17973,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18085,7 +17989,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18100,9 +18004,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18110,7 +18012,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18121,7 +18023,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18130,7 +18032,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18142,7 +18044,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18150,7 +18052,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18246,7 +18148,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18289,7 +18191,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18616,7 +18518,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18632,7 +18534,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18648,7 +18550,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18664,7 +18566,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18680,7 +18582,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18695,9 +18597,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18705,7 +18605,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18716,7 +18616,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18725,7 +18625,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18737,7 +18637,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18745,7 +18645,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18841,7 +18741,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18884,7 +18784,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19211,7 +19111,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19227,7 +19127,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19243,7 +19143,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19259,7 +19159,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19275,7 +19175,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19290,9 +19190,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19300,7 +19198,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19311,7 +19209,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19320,7 +19218,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19332,7 +19230,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19340,7 +19238,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19436,7 +19334,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19479,7 +19377,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19806,7 +19704,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19822,7 +19720,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19838,7 +19736,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19854,7 +19752,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19870,7 +19768,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19885,9 +19783,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>166</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19895,7 +19791,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19906,7 +19802,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19915,7 +19811,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19927,7 +19823,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19935,7 +19831,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20031,7 +19927,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20074,7 +19970,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20401,7 +20297,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20417,7 +20313,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20433,7 +20329,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20449,7 +20345,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20465,7 +20361,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20480,9 +20376,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>247</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20490,7 +20384,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20501,7 +20395,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20510,7 +20404,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20522,7 +20416,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20530,7 +20424,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20626,7 +20520,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20669,7 +20563,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20996,7 +20890,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21012,7 +20906,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21028,7 +20922,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21044,7 +20938,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21060,7 +20954,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21075,9 +20969,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>331</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21085,7 +20977,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21096,7 +20988,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21105,7 +20997,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21117,7 +21009,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21125,7 +21017,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21221,7 +21113,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21264,7 +21156,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21591,7 +21483,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21607,7 +21499,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21623,7 +21515,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21639,7 +21531,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21655,7 +21547,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21670,9 +21562,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21680,7 +21570,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21691,7 +21581,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21700,7 +21590,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21712,7 +21602,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21816,7 +21706,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21859,7 +21749,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22186,7 +22076,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22202,7 +22092,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22218,7 +22108,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22234,7 +22124,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22250,7 +22140,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22265,9 +22155,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22275,7 +22163,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22286,7 +22174,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22295,7 +22183,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22307,7 +22195,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22315,7 +22203,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22411,7 +22299,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22454,7 +22342,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22781,7 +22669,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22797,7 +22685,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22813,7 +22701,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22829,7 +22717,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22845,7 +22733,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22860,9 +22748,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22870,7 +22756,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22881,7 +22767,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22890,7 +22776,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22902,7 +22788,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22910,7 +22796,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23006,7 +22892,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23049,7 +22935,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23376,7 +23262,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23392,7 +23278,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23408,7 +23294,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23424,7 +23310,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23440,7 +23326,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23455,9 +23341,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>174</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23465,7 +23349,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23476,7 +23360,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23485,7 +23369,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23497,7 +23381,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23505,7 +23389,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23601,7 +23485,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23644,7 +23528,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23971,7 +23855,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23987,7 +23871,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -24003,7 +23887,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24019,7 +23903,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24035,7 +23919,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24050,9 +23934,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>223</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24060,7 +23942,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24071,7 +23953,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24080,7 +23962,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24092,7 +23974,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24100,7 +23982,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -24196,7 +24078,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -24239,7 +24121,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -24566,7 +24448,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -24582,7 +24464,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -24598,7 +24480,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24614,7 +24496,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24630,7 +24512,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24645,9 +24527,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>331</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24655,7 +24535,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24666,7 +24546,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24675,7 +24555,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24687,7 +24567,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24695,7 +24575,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -24791,7 +24671,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -24834,7 +24714,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -25161,7 +25041,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -25177,7 +25057,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -25193,7 +25073,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -25209,7 +25089,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -25225,7 +25105,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -25240,9 +25120,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -25250,7 +25128,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -25261,7 +25139,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -25270,7 +25148,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -25282,7 +25160,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -25290,7 +25168,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25386,7 +25264,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25429,7 +25307,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -25756,7 +25634,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -25772,7 +25650,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -25788,7 +25666,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -25804,7 +25682,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -25820,7 +25698,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -25835,9 +25713,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -25845,7 +25721,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -25856,7 +25732,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -25865,7 +25741,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -25877,7 +25753,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -25885,7 +25761,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25981,7 +25857,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -26024,7 +25900,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -26351,7 +26227,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -26367,7 +26243,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -26383,7 +26259,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -26399,7 +26275,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -26415,7 +26291,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -26430,9 +26306,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>174</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -26440,7 +26314,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -26451,7 +26325,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -26460,7 +26334,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -26472,7 +26346,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -26480,7 +26354,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -26576,7 +26450,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -26619,7 +26493,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -26946,7 +26820,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -26962,7 +26836,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -26978,7 +26852,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -26994,7 +26868,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -27010,7 +26884,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -27025,9 +26899,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -27035,7 +26907,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -27046,7 +26918,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -27055,7 +26927,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -27067,7 +26939,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -27075,7 +26947,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -27171,7 +27043,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -27214,7 +27086,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -27541,7 +27413,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -27557,7 +27429,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -27573,7 +27445,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -27589,7 +27461,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -27605,7 +27477,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -27620,9 +27492,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -27630,7 +27500,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -27641,7 +27511,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -27650,7 +27520,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -27662,7 +27532,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -27670,7 +27540,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -27766,7 +27636,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -27809,7 +27679,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -28136,7 +28006,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -28152,7 +28022,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -28168,7 +28038,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -28184,7 +28054,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -28200,7 +28070,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -28215,9 +28085,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -28225,7 +28093,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -28236,7 +28104,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -28245,7 +28113,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -28257,7 +28125,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -28265,7 +28133,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -28361,7 +28229,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -28404,7 +28272,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -28731,7 +28599,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -28747,7 +28615,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -28938,7 +28806,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -29304,7 +29172,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -29320,7 +29188,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -29336,7 +29204,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -29352,7 +29220,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -29368,7 +29236,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -29383,9 +29251,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -29393,7 +29259,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -29404,7 +29270,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -29413,7 +29279,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -29425,7 +29291,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -29433,7 +29299,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -29529,7 +29395,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -29572,7 +29438,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -29775,577 +29641,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20154430</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>413</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>414</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -30369,7 +29664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -30526,7 +29821,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -30542,7 +29837,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -30558,7 +29853,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -30574,7 +29869,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -30590,7 +29885,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -30605,9 +29900,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -30615,7 +29908,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -30626,7 +29919,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -30635,7 +29928,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -30647,7 +29940,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -30655,7 +29948,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -30751,7 +30044,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -30794,7 +30087,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -31121,7 +30414,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -31137,7 +30430,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -31153,7 +30446,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -31169,7 +30462,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -31185,7 +30478,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -31200,9 +30493,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>93</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -31210,7 +30501,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -31221,7 +30512,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -31230,7 +30521,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -31242,7 +30533,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -31250,7 +30541,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -31346,7 +30637,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -31389,7 +30680,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -31716,7 +31007,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -31732,7 +31023,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -31748,7 +31039,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -31764,7 +31055,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -31780,7 +31071,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -31795,9 +31086,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -31805,7 +31094,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -31816,7 +31105,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -31825,7 +31114,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -31837,7 +31126,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -31845,7 +31134,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -31941,7 +31230,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -31984,7 +31273,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -32311,7 +31600,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -32327,7 +31616,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -32343,7 +31632,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -32359,7 +31648,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -32375,7 +31664,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -32390,9 +31679,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -32400,7 +31687,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -32411,7 +31698,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -32420,7 +31707,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -32432,7 +31719,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -32536,7 +31823,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -32579,7 +31866,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
